--- a/excel/bike_data.xlsx
+++ b/excel/bike_data.xlsx
@@ -94,7 +94,7 @@
     <t>宿舍调动</t>
   </si>
   <si>
-    <t>价格贵，开销大</t>
+    <t>价格贵</t>
   </si>
   <si>
     <t>道路拥堵</t>
@@ -591,10 +591,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -609,14 +609,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,30 +653,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,17 +690,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,7 +699,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,7 +729,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -792,19 +792,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,19 +822,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,13 +846,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,7 +864,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,19 +942,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,73 +966,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,11 +986,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,45 +1075,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1091,10 +1091,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1103,7 +1103,7 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1112,132 +1112,132 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51"/>
@@ -1305,8 +1305,8 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
     <cellStyle name="Normal" xfId="51"/>
     <cellStyle name="Percent" xfId="52"/>
-    <cellStyle name="Comma" xfId="53"/>
-    <cellStyle name="Comma [0]" xfId="54"/>
+    <cellStyle name="Comma [0]" xfId="53"/>
+    <cellStyle name="Comma" xfId="54"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1645,8 +1645,8 @@
   <sheetPr/>
   <dimension ref="A1:AL85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -7729,7 +7729,7 @@
       <c r="C53">
         <v>4</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="5" t="s">
         <v>82</v>
       </c>
       <c r="E53">
@@ -7845,7 +7845,7 @@
       <c r="C54">
         <v>4</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="5" t="s">
         <v>97</v>
       </c>
       <c r="E54">

--- a/excel/bike_data.xlsx
+++ b/excel/bike_data.xlsx
@@ -1645,8 +1645,8 @@
   <sheetPr/>
   <dimension ref="A1:AL85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -2313,7 +2313,7 @@
       <c r="O6" s="2">
         <v>1</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="5" t="s">
         <v>46</v>
       </c>
       <c r="Q6">
@@ -8577,7 +8577,7 @@
       <c r="O60" s="2">
         <v>1</v>
       </c>
-      <c r="P60" t="s">
+      <c r="P60" s="5" t="s">
         <v>153</v>
       </c>
       <c r="Q60">

--- a/excel/bike_data.xlsx
+++ b/excel/bike_data.xlsx
@@ -1646,7 +1646,7 @@
   <dimension ref="A1:AL85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>

--- a/excel/bike_data.xlsx
+++ b/excel/bike_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="190">
   <si>
     <t>序号</t>
   </si>
@@ -1643,10 +1643,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL85"/>
+  <dimension ref="A1:AL92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -2552,7 +2552,7 @@
         <v>2</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S8" t="s">
         <v>53</v>
@@ -2900,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S11" t="s">
         <v>37</v>
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S13" t="s">
         <v>37</v>
@@ -10324,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S75" t="s">
         <v>37</v>
@@ -11367,6 +11367,9 @@
       <c r="Q84" t="s">
         <v>37</v>
       </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
       <c r="S84" t="s">
         <v>37</v>
       </c>
@@ -11477,6 +11480,9 @@
       <c r="Q85">
         <v>2</v>
       </c>
+      <c r="R85">
+        <v>2</v>
+      </c>
       <c r="S85" t="s">
         <v>37</v>
       </c>
@@ -11535,6 +11541,815 @@
         <v>37</v>
       </c>
       <c r="AL85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38">
+      <c r="A86">
+        <v>82</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2">
+        <v>1</v>
+      </c>
+      <c r="M86" s="2">
+        <v>1</v>
+      </c>
+      <c r="N86" s="2">
+        <v>1</v>
+      </c>
+      <c r="O86" s="2">
+        <v>0</v>
+      </c>
+      <c r="P86" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86" t="s">
+        <v>37</v>
+      </c>
+      <c r="T86" t="s">
+        <v>37</v>
+      </c>
+      <c r="U86" t="s">
+        <v>37</v>
+      </c>
+      <c r="V86" t="s">
+        <v>37</v>
+      </c>
+      <c r="W86">
+        <v>2</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD86" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF86" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG86" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH86" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI86" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ86" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK86" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:38">
+      <c r="A87">
+        <v>79</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>152</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+      <c r="L87" s="2">
+        <v>1</v>
+      </c>
+      <c r="M87" s="2">
+        <v>0</v>
+      </c>
+      <c r="N87" s="2">
+        <v>0</v>
+      </c>
+      <c r="O87" s="2">
+        <v>0</v>
+      </c>
+      <c r="P87" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q87">
+        <v>2</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87" t="s">
+        <v>186</v>
+      </c>
+      <c r="T87">
+        <v>500</v>
+      </c>
+      <c r="U87" t="s">
+        <v>124</v>
+      </c>
+      <c r="V87" t="s">
+        <v>125</v>
+      </c>
+      <c r="W87">
+        <v>1</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH87" s="4">
+        <v>1</v>
+      </c>
+      <c r="AI87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK87" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38">
+      <c r="A88">
+        <v>80</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>1</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2">
+        <v>1</v>
+      </c>
+      <c r="M88" s="2">
+        <v>0</v>
+      </c>
+      <c r="N88" s="2">
+        <v>0</v>
+      </c>
+      <c r="O88" s="2">
+        <v>1</v>
+      </c>
+      <c r="P88" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88" t="s">
+        <v>37</v>
+      </c>
+      <c r="T88" t="s">
+        <v>37</v>
+      </c>
+      <c r="U88" t="s">
+        <v>37</v>
+      </c>
+      <c r="V88" t="s">
+        <v>37</v>
+      </c>
+      <c r="W88" t="s">
+        <v>37</v>
+      </c>
+      <c r="X88" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y88" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z88" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA88" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB88" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC88" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD88" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE88" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF88" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG88" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH88" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI88" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ88" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK88" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:38">
+      <c r="A89">
+        <v>81</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>152</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>1</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2">
+        <v>0</v>
+      </c>
+      <c r="M89" s="2">
+        <v>0</v>
+      </c>
+      <c r="N89" s="2">
+        <v>1</v>
+      </c>
+      <c r="O89" s="2">
+        <v>1</v>
+      </c>
+      <c r="P89" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q89">
+        <v>2</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89" t="s">
+        <v>37</v>
+      </c>
+      <c r="T89" t="s">
+        <v>37</v>
+      </c>
+      <c r="U89" t="s">
+        <v>37</v>
+      </c>
+      <c r="V89" t="s">
+        <v>37</v>
+      </c>
+      <c r="W89" t="s">
+        <v>37</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y89" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA89" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB89" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC89" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD89" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE89" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF89" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG89" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH89" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI89" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ89" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK89" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38">
+      <c r="A90">
+        <v>82</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2">
+        <v>1</v>
+      </c>
+      <c r="M90" s="2">
+        <v>1</v>
+      </c>
+      <c r="N90" s="2">
+        <v>1</v>
+      </c>
+      <c r="O90" s="2">
+        <v>0</v>
+      </c>
+      <c r="P90" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="S90" t="s">
+        <v>37</v>
+      </c>
+      <c r="T90" t="s">
+        <v>37</v>
+      </c>
+      <c r="U90" t="s">
+        <v>37</v>
+      </c>
+      <c r="V90" t="s">
+        <v>37</v>
+      </c>
+      <c r="W90">
+        <v>2</v>
+      </c>
+      <c r="X90" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB90" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD90" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE90" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF90" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG90" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH90" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI90" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ90" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK90" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:38">
+      <c r="A91">
+        <v>83</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>61</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2">
+        <v>0</v>
+      </c>
+      <c r="M91" s="2">
+        <v>0</v>
+      </c>
+      <c r="N91" s="2">
+        <v>0</v>
+      </c>
+      <c r="O91" s="2">
+        <v>0</v>
+      </c>
+      <c r="P91" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>37</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91" t="s">
+        <v>37</v>
+      </c>
+      <c r="T91" t="s">
+        <v>37</v>
+      </c>
+      <c r="U91" t="s">
+        <v>37</v>
+      </c>
+      <c r="V91" t="s">
+        <v>37</v>
+      </c>
+      <c r="W91">
+        <v>2</v>
+      </c>
+      <c r="X91" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE91" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK91" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:38">
+      <c r="A92">
+        <v>84</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>1</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+      <c r="L92" s="2">
+        <v>1</v>
+      </c>
+      <c r="M92" s="2">
+        <v>0</v>
+      </c>
+      <c r="N92" s="2">
+        <v>0</v>
+      </c>
+      <c r="O92" s="2">
+        <v>1</v>
+      </c>
+      <c r="P92" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q92">
+        <v>2</v>
+      </c>
+      <c r="R92">
+        <v>1</v>
+      </c>
+      <c r="S92" t="s">
+        <v>37</v>
+      </c>
+      <c r="T92" t="s">
+        <v>37</v>
+      </c>
+      <c r="U92" t="s">
+        <v>37</v>
+      </c>
+      <c r="V92" t="s">
+        <v>37</v>
+      </c>
+      <c r="W92" t="s">
+        <v>37</v>
+      </c>
+      <c r="X92" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y92" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z92" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA92" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB92" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC92" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD92" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE92" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF92" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG92" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH92" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI92" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ92" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK92" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL92">
         <v>2</v>
       </c>
     </row>

--- a/excel/bike_data.xlsx
+++ b/excel/bike_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="192">
   <si>
     <t>序号</t>
   </si>
@@ -52,48 +52,54 @@
     <t>距离近</t>
   </si>
   <si>
+    <t>可锻炼身体</t>
+  </si>
+  <si>
+    <t>时间充裕</t>
+  </si>
+  <si>
+    <t>与人同行</t>
+  </si>
+  <si>
+    <t>不坐电瓶车的原因</t>
+  </si>
+  <si>
+    <t>电瓶车价格是否合理</t>
+  </si>
+  <si>
+    <t>是否购买自行车</t>
+  </si>
+  <si>
+    <t>购买自行车的原因</t>
+  </si>
+  <si>
+    <t>购买自行车的价格</t>
+  </si>
+  <si>
+    <t>日常选择哪种品牌的共享单车</t>
+  </si>
+  <si>
+    <t>坐电瓶车的原因</t>
+  </si>
+  <si>
+    <t>相较于疫情之前，您的出行方式是否有变化</t>
+  </si>
+  <si>
+    <t>缩减开支</t>
+  </si>
+  <si>
     <t>锻炼身体</t>
   </si>
   <si>
-    <t>时间充裕</t>
-  </si>
-  <si>
-    <t>与人同行</t>
-  </si>
-  <si>
-    <t>不坐电瓶车的原因</t>
-  </si>
-  <si>
-    <t>电瓶车价格是否合理</t>
-  </si>
-  <si>
-    <t>是否购买自行车</t>
-  </si>
-  <si>
-    <t>购买自行车的原因</t>
-  </si>
-  <si>
-    <t>购买自行车的价格</t>
-  </si>
-  <si>
-    <t>日常选择哪种品牌的共享单车</t>
-  </si>
-  <si>
-    <t>坐电瓶车的原因</t>
-  </si>
-  <si>
-    <t>相较于疫情之前，您的出行方式是否有变化</t>
-  </si>
-  <si>
-    <t>缩减开支</t>
-  </si>
-  <si>
     <t>上课地点调动</t>
   </si>
   <si>
     <t>宿舍调动</t>
   </si>
   <si>
+    <t>其他_</t>
+  </si>
+  <si>
     <t>价格贵</t>
   </si>
   <si>
@@ -115,6 +121,9 @@
     <t>防盗</t>
   </si>
   <si>
+    <t>其他__</t>
+  </si>
+  <si>
     <t>意见与建议</t>
   </si>
   <si>
@@ -578,9 +587,6 @@
   </si>
   <si>
     <t>有点远，不想去</t>
-  </si>
-  <si>
-    <t>建议学校多来几条电动车道</t>
   </si>
   <si>
     <t>有自行车</t>
@@ -591,10 +597,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -609,30 +615,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,12 +631,50 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,39 +687,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,10 +711,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -729,31 +728,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -792,7 +798,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,13 +918,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,157 +978,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,6 +989,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1005,61 +1076,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,166 +1089,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1643,10 +1649,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL92"/>
+  <dimension ref="A1:AL116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -1761,46 +1767,46 @@
         <v>23</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="9" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -1814,7 +1820,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -1850,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1859,16 +1865,16 @@
         <v>2</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W2">
         <v>2</v>
@@ -1913,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="AK2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL2">
         <v>1</v>
@@ -1930,7 +1936,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1966,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1975,16 +1981,16 @@
         <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W3">
         <v>2</v>
@@ -2029,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="AK3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL3">
         <v>1</v>
@@ -2046,7 +2052,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2082,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -2091,16 +2097,16 @@
         <v>2</v>
       </c>
       <c r="S4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="T4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W4">
         <v>2</v>
@@ -2145,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="AK4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL4">
         <v>1</v>
@@ -2162,7 +2168,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2198,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -2207,16 +2213,16 @@
         <v>2</v>
       </c>
       <c r="S5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W5">
         <v>2</v>
@@ -2261,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="AK5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL5">
         <v>1</v>
@@ -2278,7 +2284,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -2314,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2323,16 +2329,16 @@
         <v>2</v>
       </c>
       <c r="S6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="U6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="V6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="W6">
         <v>2</v>
@@ -2377,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="AK6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL6">
         <v>1</v>
@@ -2394,7 +2400,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -2430,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -2439,16 +2445,16 @@
         <v>2</v>
       </c>
       <c r="S7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W7">
         <v>2</v>
@@ -2493,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="AK7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL7">
         <v>1</v>
@@ -2510,7 +2516,7 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2546,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2555,16 +2561,16 @@
         <v>1</v>
       </c>
       <c r="S8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W8">
         <v>2</v>
@@ -2609,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="AK8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL8">
         <v>1</v>
@@ -2626,7 +2632,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -2662,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2671,16 +2677,16 @@
         <v>2</v>
       </c>
       <c r="S9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W9">
         <v>2</v>
@@ -2725,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="AK9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL9">
         <v>1</v>
@@ -2742,7 +2748,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -2778,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2787,16 +2793,16 @@
         <v>2</v>
       </c>
       <c r="S10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="V10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="W10">
         <v>2</v>
@@ -2841,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="AK10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AL10">
         <v>1</v>
@@ -2858,7 +2864,7 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -2894,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -2903,16 +2909,16 @@
         <v>1</v>
       </c>
       <c r="S11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W11">
         <v>2</v>
@@ -2957,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="AK11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL11">
         <v>1</v>
@@ -2974,7 +2980,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -3010,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="P12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -3019,16 +3025,16 @@
         <v>2</v>
       </c>
       <c r="S12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="V12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="W12">
         <v>2</v>
@@ -3073,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="AK12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AL12">
         <v>1</v>
@@ -3090,7 +3096,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -3126,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3135,16 +3141,16 @@
         <v>1</v>
       </c>
       <c r="S13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W13">
         <v>2</v>
@@ -3189,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="AK13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL13">
         <v>1</v>
@@ -3206,7 +3212,7 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3242,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q14">
         <v>1</v>
@@ -3251,16 +3257,16 @@
         <v>2</v>
       </c>
       <c r="S14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W14">
         <v>1</v>
@@ -3305,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="AK14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL14">
         <v>1</v>
@@ -3322,7 +3328,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3358,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q15">
         <v>1</v>
@@ -3367,16 +3373,16 @@
         <v>2</v>
       </c>
       <c r="S15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W15">
         <v>2</v>
@@ -3421,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="AK15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL15">
         <v>1</v>
@@ -3438,7 +3444,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -3474,7 +3480,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q16">
         <v>2</v>
@@ -3483,16 +3489,16 @@
         <v>2</v>
       </c>
       <c r="S16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W16">
         <v>2</v>
@@ -3537,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="AK16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL16">
         <v>1</v>
@@ -3554,7 +3560,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -3590,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -3599,16 +3605,16 @@
         <v>2</v>
       </c>
       <c r="S17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W17">
         <v>2</v>
@@ -3653,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="AK17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL17">
         <v>1</v>
@@ -3670,7 +3676,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -3706,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -3715,16 +3721,16 @@
         <v>2</v>
       </c>
       <c r="S18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W18">
         <v>2</v>
@@ -3769,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="AK18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL18">
         <v>1</v>
@@ -3786,7 +3792,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3831,16 +3837,16 @@
         <v>2</v>
       </c>
       <c r="S19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="W19">
         <v>2</v>
@@ -3885,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="AK19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL19">
         <v>1</v>
@@ -3902,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -3938,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -3947,16 +3953,16 @@
         <v>2</v>
       </c>
       <c r="S20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W20">
         <v>2</v>
@@ -4001,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="AK20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL20">
         <v>1</v>
@@ -4018,7 +4024,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4054,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -4063,16 +4069,16 @@
         <v>2</v>
       </c>
       <c r="S21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W21">
         <v>2</v>
@@ -4117,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="AK21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL21">
         <v>1</v>
@@ -4134,7 +4140,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -4170,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -4179,16 +4185,16 @@
         <v>1</v>
       </c>
       <c r="S22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W22">
         <v>2</v>
@@ -4233,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="AK22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL22">
         <v>1</v>
@@ -4250,7 +4256,7 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -4286,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -4295,16 +4301,16 @@
         <v>2</v>
       </c>
       <c r="S23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W23">
         <v>2</v>
@@ -4349,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="AK23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL23">
         <v>1</v>
@@ -4366,7 +4372,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -4402,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -4411,16 +4417,16 @@
         <v>1</v>
       </c>
       <c r="S24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W24">
         <v>2</v>
@@ -4465,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="AK24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL24">
         <v>1</v>
@@ -4482,7 +4488,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -4518,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -4527,16 +4533,16 @@
         <v>1</v>
       </c>
       <c r="S25" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="T25">
         <v>400</v>
       </c>
       <c r="U25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="V25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="W25">
         <v>2</v>
@@ -4581,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="AK25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL25">
         <v>1</v>
@@ -4598,7 +4604,7 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -4619,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L26" s="2">
         <v>0</v>
@@ -4634,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -4643,16 +4649,16 @@
         <v>2</v>
       </c>
       <c r="S26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W26">
         <v>1</v>
@@ -4697,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="AK26" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL26">
         <v>1</v>
@@ -4714,7 +4720,7 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -4750,7 +4756,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -4759,16 +4765,16 @@
         <v>2</v>
       </c>
       <c r="S27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W27">
         <v>2</v>
@@ -4813,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="AK27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AL27">
         <v>1</v>
@@ -4830,7 +4836,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E28">
         <v>4</v>
@@ -4866,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -4875,16 +4881,16 @@
         <v>2</v>
       </c>
       <c r="S28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W28">
         <v>2</v>
@@ -4929,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="AK28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL28">
         <v>1</v>
@@ -4946,7 +4952,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -4982,7 +4988,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -4991,16 +4997,16 @@
         <v>1</v>
       </c>
       <c r="S29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W29">
         <v>2</v>
@@ -5045,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="AK29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL29">
         <v>1</v>
@@ -5062,7 +5068,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -5098,7 +5104,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -5107,16 +5113,16 @@
         <v>2</v>
       </c>
       <c r="S30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W30">
         <v>2</v>
@@ -5161,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="AK30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL30">
         <v>1</v>
@@ -5178,7 +5184,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -5214,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -5223,16 +5229,16 @@
         <v>2</v>
       </c>
       <c r="S31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W31">
         <v>2</v>
@@ -5277,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="AK31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL31">
         <v>1</v>
@@ -5294,7 +5300,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -5330,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -5339,16 +5345,16 @@
         <v>2</v>
       </c>
       <c r="S32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="W32">
         <v>2</v>
@@ -5393,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="AK32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL32">
         <v>1</v>
@@ -5410,7 +5416,7 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -5446,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="P33" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q33">
         <v>2</v>
@@ -5455,16 +5461,16 @@
         <v>2</v>
       </c>
       <c r="S33" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T33" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U33" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V33" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W33">
         <v>2</v>
@@ -5509,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="AK33" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AL33">
         <v>1</v>
@@ -5526,7 +5532,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -5562,7 +5568,7 @@
         <v>1</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -5571,16 +5577,16 @@
         <v>2</v>
       </c>
       <c r="S34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W34">
         <v>1</v>
@@ -5625,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="AK34" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL34">
         <v>1</v>
@@ -5642,7 +5648,7 @@
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -5678,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -5687,16 +5693,16 @@
         <v>1</v>
       </c>
       <c r="S35" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="T35" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="U35" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="V35" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="W35">
         <v>1</v>
@@ -5741,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="AK35" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AL35">
         <v>1</v>
@@ -5758,7 +5764,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -5794,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -5803,16 +5809,16 @@
         <v>2</v>
       </c>
       <c r="S36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V36" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="W36">
         <v>2</v>
@@ -5857,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="AK36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL36">
         <v>1</v>
@@ -5874,7 +5880,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -5910,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="P37" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -5919,16 +5925,16 @@
         <v>2</v>
       </c>
       <c r="S37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W37">
         <v>2</v>
@@ -5973,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="AK37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL37">
         <v>1</v>
@@ -5990,7 +5996,7 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -6026,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -6035,16 +6041,16 @@
         <v>2</v>
       </c>
       <c r="S38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W38">
         <v>2</v>
@@ -6089,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="AK38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL38">
         <v>1</v>
@@ -6106,7 +6112,7 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -6142,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="P39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q39">
         <v>1</v>
@@ -6151,16 +6157,16 @@
         <v>2</v>
       </c>
       <c r="S39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W39">
         <v>2</v>
@@ -6205,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="AK39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL39">
         <v>1</v>
@@ -6222,7 +6228,7 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -6258,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -6267,16 +6273,16 @@
         <v>1</v>
       </c>
       <c r="S40" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="T40" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U40" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V40" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="W40">
         <v>2</v>
@@ -6321,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="AK40" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL40">
         <v>1</v>
@@ -6338,7 +6344,7 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -6374,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="P41" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -6383,16 +6389,16 @@
         <v>2</v>
       </c>
       <c r="S41" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T41" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U41" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V41" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W41">
         <v>2</v>
@@ -6437,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="AK41" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL41">
         <v>1</v>
@@ -6454,7 +6460,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E42">
         <v>4</v>
@@ -6490,7 +6496,7 @@
         <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q42">
         <v>1</v>
@@ -6499,16 +6505,16 @@
         <v>2</v>
       </c>
       <c r="S42" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="T42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="U42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="V42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="W42">
         <v>2</v>
@@ -6553,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="AK42" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL42">
         <v>1</v>
@@ -6570,7 +6576,7 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -6606,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -6615,16 +6621,16 @@
         <v>2</v>
       </c>
       <c r="S43" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T43" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U43" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V43" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W43">
         <v>2</v>
@@ -6669,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="AK43" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL43">
         <v>1</v>
@@ -6686,7 +6692,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -6722,7 +6728,7 @@
         <v>1</v>
       </c>
       <c r="P44" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q44">
         <v>1</v>
@@ -6731,16 +6737,16 @@
         <v>2</v>
       </c>
       <c r="S44" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T44" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U44" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V44" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W44">
         <v>2</v>
@@ -6785,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="AK44" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL44">
         <v>1</v>
@@ -6802,7 +6808,7 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -6838,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -6847,16 +6853,16 @@
         <v>2</v>
       </c>
       <c r="S45" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T45" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U45" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V45" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W45">
         <v>1</v>
@@ -6901,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="AK45" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL45">
         <v>1</v>
@@ -6918,7 +6924,7 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E46">
         <v>4</v>
@@ -6954,7 +6960,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -6963,16 +6969,16 @@
         <v>2</v>
       </c>
       <c r="S46" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T46" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U46" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V46" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W46">
         <v>2</v>
@@ -7017,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="AK46" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL46">
         <v>1</v>
@@ -7034,7 +7040,7 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -7070,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="P47" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q47">
         <v>1</v>
@@ -7079,16 +7085,16 @@
         <v>2</v>
       </c>
       <c r="S47" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T47" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U47" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="V47" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="W47">
         <v>2</v>
@@ -7133,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="AK47" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AL47">
         <v>1</v>
@@ -7150,7 +7156,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -7186,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="P48" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q48">
         <v>1</v>
@@ -7195,16 +7201,16 @@
         <v>2</v>
       </c>
       <c r="S48" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T48" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U48" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V48" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W48">
         <v>2</v>
@@ -7249,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="AK48" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL48">
         <v>1</v>
@@ -7266,7 +7272,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -7302,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="P49" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q49">
         <v>1</v>
@@ -7311,16 +7317,16 @@
         <v>1</v>
       </c>
       <c r="S49" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="T49" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="U49" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="V49" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="W49">
         <v>2</v>
@@ -7365,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="AK49" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL49">
         <v>1</v>
@@ -7382,7 +7388,7 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -7418,7 +7424,7 @@
         <v>1</v>
       </c>
       <c r="P50" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q50">
         <v>1</v>
@@ -7427,16 +7433,16 @@
         <v>2</v>
       </c>
       <c r="S50" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="T50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="U50" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="V50" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="W50">
         <v>2</v>
@@ -7481,7 +7487,7 @@
         <v>1</v>
       </c>
       <c r="AK50" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AL50">
         <v>1</v>
@@ -7498,7 +7504,7 @@
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -7534,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -7543,16 +7549,16 @@
         <v>1</v>
       </c>
       <c r="S51" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="T51">
         <v>250</v>
       </c>
       <c r="U51" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="V51" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="W51">
         <v>2</v>
@@ -7597,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="AK51" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL51">
         <v>1</v>
@@ -7614,7 +7620,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -7650,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="P52" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q52">
         <v>1</v>
@@ -7659,16 +7665,16 @@
         <v>2</v>
       </c>
       <c r="S52" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T52" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U52" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V52" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W52">
         <v>2</v>
@@ -7713,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="AK52" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL52">
         <v>1</v>
@@ -7730,7 +7736,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -7766,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="P53" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q53">
         <v>1</v>
@@ -7775,16 +7781,16 @@
         <v>1</v>
       </c>
       <c r="S53" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T53" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U53" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V53" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W53">
         <v>2</v>
@@ -7829,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="AK53" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL53">
         <v>1</v>
@@ -7846,7 +7852,7 @@
         <v>4</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -7882,7 +7888,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q54">
         <v>1</v>
@@ -7891,16 +7897,16 @@
         <v>2</v>
       </c>
       <c r="S54" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T54" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U54" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V54" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W54">
         <v>2</v>
@@ -7945,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="AK54" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL54">
         <v>1</v>
@@ -7962,7 +7968,7 @@
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -7998,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="P55" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q55">
         <v>1</v>
@@ -8007,16 +8013,16 @@
         <v>1</v>
       </c>
       <c r="S55" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T55" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U55" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V55" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W55">
         <v>1</v>
@@ -8061,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="AK55" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL55">
         <v>1</v>
@@ -8078,7 +8084,7 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -8114,7 +8120,7 @@
         <v>1</v>
       </c>
       <c r="P56" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q56">
         <v>1</v>
@@ -8123,16 +8129,16 @@
         <v>2</v>
       </c>
       <c r="S56" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T56" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U56" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V56" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W56">
         <v>2</v>
@@ -8177,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="AK56" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL56">
         <v>1</v>
@@ -8194,7 +8200,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -8230,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="P57" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q57">
         <v>2</v>
@@ -8239,16 +8245,16 @@
         <v>2</v>
       </c>
       <c r="S57" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T57" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U57" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V57" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W57">
         <v>1</v>
@@ -8293,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="AK57" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AL57">
         <v>1</v>
@@ -8310,7 +8316,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -8346,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="P58" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q58">
         <v>1</v>
@@ -8355,16 +8361,16 @@
         <v>1</v>
       </c>
       <c r="S58" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T58" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U58" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V58" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W58">
         <v>2</v>
@@ -8409,7 +8415,7 @@
         <v>0</v>
       </c>
       <c r="AK58" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL58">
         <v>1</v>
@@ -8426,7 +8432,7 @@
         <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -8462,7 +8468,7 @@
         <v>1</v>
       </c>
       <c r="P59" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -8471,16 +8477,16 @@
         <v>2</v>
       </c>
       <c r="S59" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T59" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U59" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V59" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="W59">
         <v>2</v>
@@ -8525,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="AK59" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL59">
         <v>1</v>
@@ -8542,7 +8548,7 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E60">
         <v>3</v>
@@ -8578,7 +8584,7 @@
         <v>1</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q60">
         <v>1</v>
@@ -8587,16 +8593,16 @@
         <v>2</v>
       </c>
       <c r="S60" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T60" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U60" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V60" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="W60">
         <v>2</v>
@@ -8641,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="AK60" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL60">
         <v>1</v>
@@ -8658,7 +8664,7 @@
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -8694,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="P61" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -8703,16 +8709,16 @@
         <v>2</v>
       </c>
       <c r="S61" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T61" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U61" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="V61" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W61">
         <v>1</v>
@@ -8757,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="AK61" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AL61">
         <v>1</v>
@@ -8774,7 +8780,7 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -8810,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="P62" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -8819,16 +8825,16 @@
         <v>2</v>
       </c>
       <c r="S62" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T62" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U62" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V62" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="W62">
         <v>2</v>
@@ -8873,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="AK62" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL62">
         <v>1</v>
@@ -8890,7 +8896,7 @@
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -8926,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="P63" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -8935,16 +8941,16 @@
         <v>2</v>
       </c>
       <c r="S63" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T63" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U63" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V63" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W63">
         <v>2</v>
@@ -8989,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="AK63" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL63">
         <v>1</v>
@@ -9006,7 +9012,7 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -9042,7 +9048,7 @@
         <v>0</v>
       </c>
       <c r="P64" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -9051,16 +9057,16 @@
         <v>1</v>
       </c>
       <c r="S64" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="T64">
         <v>500</v>
       </c>
       <c r="U64" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V64" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W64">
         <v>2</v>
@@ -9105,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="AK64" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL64">
         <v>1</v>
@@ -9122,7 +9128,7 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -9158,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="P65" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -9167,16 +9173,16 @@
         <v>2</v>
       </c>
       <c r="S65" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T65" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U65" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V65" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W65">
         <v>2</v>
@@ -9221,7 +9227,7 @@
         <v>1</v>
       </c>
       <c r="AK65" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL65">
         <v>1</v>
@@ -9238,7 +9244,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -9274,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="P66" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q66">
         <v>2</v>
@@ -9283,16 +9289,16 @@
         <v>1</v>
       </c>
       <c r="S66" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T66" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U66" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V66" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="W66">
         <v>2</v>
@@ -9337,7 +9343,7 @@
         <v>0</v>
       </c>
       <c r="AK66" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL66">
         <v>1</v>
@@ -9354,7 +9360,7 @@
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -9390,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="P67" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -9399,16 +9405,16 @@
         <v>2</v>
       </c>
       <c r="S67" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T67" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U67" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V67" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W67">
         <v>2</v>
@@ -9453,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="AK67" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL67">
         <v>1</v>
@@ -9470,7 +9476,7 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E68">
         <v>3</v>
@@ -9506,7 +9512,7 @@
         <v>1</v>
       </c>
       <c r="P68" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -9515,16 +9521,16 @@
         <v>2</v>
       </c>
       <c r="S68" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T68" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U68" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V68" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W68">
         <v>2</v>
@@ -9569,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="AK68" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL68">
         <v>1</v>
@@ -9586,7 +9592,7 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -9622,7 +9628,7 @@
         <v>1</v>
       </c>
       <c r="P69" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -9631,16 +9637,16 @@
         <v>2</v>
       </c>
       <c r="S69" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T69" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U69" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V69" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W69">
         <v>2</v>
@@ -9685,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="AK69" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL69">
         <v>1</v>
@@ -9702,7 +9708,7 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -9738,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="P70" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -9747,16 +9753,16 @@
         <v>2</v>
       </c>
       <c r="S70" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T70" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U70" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V70" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W70">
         <v>2</v>
@@ -9801,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="AK70" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL70">
         <v>1</v>
@@ -9818,7 +9824,7 @@
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -9854,7 +9860,7 @@
         <v>1</v>
       </c>
       <c r="P71" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q71">
         <v>2</v>
@@ -9863,16 +9869,16 @@
         <v>1</v>
       </c>
       <c r="S71" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="T71">
         <v>500</v>
       </c>
       <c r="U71" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="V71" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="W71">
         <v>1</v>
@@ -9917,7 +9923,7 @@
         <v>0</v>
       </c>
       <c r="AK71" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL71">
         <v>1</v>
@@ -9934,7 +9940,7 @@
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -9970,7 +9976,7 @@
         <v>1</v>
       </c>
       <c r="P72" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q72">
         <v>2</v>
@@ -9979,16 +9985,16 @@
         <v>2</v>
       </c>
       <c r="S72" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T72" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U72" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V72" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W72">
         <v>2</v>
@@ -10033,7 +10039,7 @@
         <v>0</v>
       </c>
       <c r="AK72" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL72">
         <v>1</v>
@@ -10050,7 +10056,7 @@
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -10086,7 +10092,7 @@
         <v>0</v>
       </c>
       <c r="P73" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q73">
         <v>1</v>
@@ -10095,16 +10101,16 @@
         <v>2</v>
       </c>
       <c r="S73" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T73" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U73" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V73" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W73">
         <v>2</v>
@@ -10149,7 +10155,7 @@
         <v>0</v>
       </c>
       <c r="AK73" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL73">
         <v>1</v>
@@ -10166,7 +10172,7 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -10202,7 +10208,7 @@
         <v>1</v>
       </c>
       <c r="P74" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -10211,16 +10217,16 @@
         <v>2</v>
       </c>
       <c r="S74" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T74" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U74" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V74" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W74">
         <v>2</v>
@@ -10265,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="AK74" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL74">
         <v>1</v>
@@ -10282,7 +10288,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -10318,7 +10324,7 @@
         <v>1</v>
       </c>
       <c r="P75" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q75">
         <v>1</v>
@@ -10327,16 +10333,16 @@
         <v>1</v>
       </c>
       <c r="S75" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T75" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U75" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V75" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W75">
         <v>2</v>
@@ -10381,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="AK75" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL75">
         <v>1</v>
@@ -10398,7 +10404,7 @@
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -10434,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="P76" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -10443,16 +10449,16 @@
         <v>2</v>
       </c>
       <c r="S76" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T76" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U76" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="V76" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="W76">
         <v>2</v>
@@ -10497,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="AK76" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL76">
         <v>1</v>
@@ -10514,7 +10520,7 @@
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -10550,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="P77" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q77">
         <v>1</v>
@@ -10559,16 +10565,16 @@
         <v>2</v>
       </c>
       <c r="S77" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T77" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U77" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="V77" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="W77">
         <v>2</v>
@@ -10613,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="AK77" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL77">
         <v>1</v>
@@ -10630,7 +10636,7 @@
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E78">
         <v>3</v>
@@ -10666,7 +10672,7 @@
         <v>0</v>
       </c>
       <c r="P78" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q78">
         <v>1</v>
@@ -10675,16 +10681,16 @@
         <v>1</v>
       </c>
       <c r="S78" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T78" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U78" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V78" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W78">
         <v>1</v>
@@ -10729,7 +10735,7 @@
         <v>0</v>
       </c>
       <c r="AK78" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL78">
         <v>1</v>
@@ -10746,7 +10752,7 @@
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -10782,7 +10788,7 @@
         <v>1</v>
       </c>
       <c r="P79" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -10791,16 +10797,16 @@
         <v>1</v>
       </c>
       <c r="S79" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="T79">
         <v>300</v>
       </c>
       <c r="U79" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V79" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W79">
         <v>2</v>
@@ -10845,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="AK79" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL79">
         <v>1</v>
@@ -10862,7 +10868,7 @@
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -10898,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="P80" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q80">
         <v>2</v>
@@ -10907,16 +10913,16 @@
         <v>1</v>
       </c>
       <c r="S80" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="T80">
         <v>500</v>
       </c>
       <c r="U80" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="V80" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="W80">
         <v>1</v>
@@ -10961,7 +10967,7 @@
         <v>0</v>
       </c>
       <c r="AK80" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL80">
         <v>1</v>
@@ -10978,7 +10984,7 @@
         <v>4</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -11014,7 +11020,7 @@
         <v>1</v>
       </c>
       <c r="P81" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -11023,61 +11029,61 @@
         <v>2</v>
       </c>
       <c r="S81" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T81" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U81" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V81" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W81" t="s">
-        <v>37</v>
-      </c>
-      <c r="X81" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y81" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z81" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA81" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB81" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC81" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD81" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE81" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF81" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG81" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH81" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI81" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ81" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="X81" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF81" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG81" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH81" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI81" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ81" s="4">
+        <v>0</v>
       </c>
       <c r="AK81" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL81">
         <v>2</v>
@@ -11094,7 +11100,7 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -11130,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="P82" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -11139,61 +11145,61 @@
         <v>2</v>
       </c>
       <c r="S82" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T82" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U82" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V82" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W82" t="s">
-        <v>37</v>
-      </c>
-      <c r="X82" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y82" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z82" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA82" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB82" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC82" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD82" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE82" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF82" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG82" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH82" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI82" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ82" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="X82" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y82" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF82" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG82" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH82" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI82" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ82" s="4">
+        <v>0</v>
       </c>
       <c r="AK82" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL82">
         <v>2</v>
@@ -11210,7 +11216,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -11246,7 +11252,7 @@
         <v>0</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -11255,16 +11261,16 @@
         <v>2</v>
       </c>
       <c r="S83" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T83" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U83" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V83" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W83">
         <v>2</v>
@@ -11308,8 +11314,8 @@
       <c r="AJ83" s="4">
         <v>0</v>
       </c>
-      <c r="AK83" s="5" t="s">
-        <v>188</v>
+      <c r="AK83" t="s">
+        <v>40</v>
       </c>
       <c r="AL83">
         <v>2</v>
@@ -11326,7 +11332,7 @@
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E84">
         <v>3</v>
@@ -11362,25 +11368,25 @@
         <v>0</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q84" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R84">
         <v>1</v>
       </c>
       <c r="S84" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T84" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U84" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V84" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W84">
         <v>2</v>
@@ -11388,6 +11394,9 @@
       <c r="X84" s="3">
         <v>1</v>
       </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
       <c r="Z84" s="3">
         <v>0</v>
       </c>
@@ -11422,7 +11431,7 @@
         <v>0</v>
       </c>
       <c r="AK84" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL84">
         <v>2</v>
@@ -11439,7 +11448,7 @@
         <v>2</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -11475,7 +11484,7 @@
         <v>1</v>
       </c>
       <c r="P85" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -11484,61 +11493,61 @@
         <v>2</v>
       </c>
       <c r="S85" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T85" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U85" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V85" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W85" t="s">
-        <v>37</v>
-      </c>
-      <c r="X85" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y85" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z85" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA85" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB85" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC85" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD85" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE85" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF85" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG85" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH85" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI85" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ85" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="X85" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="4">
+        <v>0</v>
       </c>
       <c r="AK85" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL85">
         <v>2</v>
@@ -11546,7 +11555,7 @@
     </row>
     <row r="86" spans="1:38">
       <c r="A86">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -11555,7 +11564,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -11591,7 +11600,7 @@
         <v>0</v>
       </c>
       <c r="P86" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -11600,16 +11609,16 @@
         <v>2</v>
       </c>
       <c r="S86" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T86" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U86" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V86" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W86">
         <v>2</v>
@@ -11653,8 +11662,8 @@
       <c r="AJ86" s="4">
         <v>0</v>
       </c>
-      <c r="AK86" s="5" t="s">
-        <v>188</v>
+      <c r="AK86" t="s">
+        <v>40</v>
       </c>
       <c r="AL86">
         <v>2</v>
@@ -11662,7 +11671,7 @@
     </row>
     <row r="87" spans="1:38">
       <c r="A87">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -11671,7 +11680,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -11707,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="P87" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -11716,16 +11725,16 @@
         <v>1</v>
       </c>
       <c r="S87" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="T87">
         <v>500</v>
       </c>
       <c r="U87" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="V87" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="W87">
         <v>1</v>
@@ -11761,7 +11770,7 @@
         <v>0</v>
       </c>
       <c r="AH87" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI87" s="4">
         <v>0</v>
@@ -11770,15 +11779,15 @@
         <v>0</v>
       </c>
       <c r="AK87" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:38">
       <c r="A88">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -11787,7 +11796,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -11823,7 +11832,7 @@
         <v>1</v>
       </c>
       <c r="P88" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -11832,61 +11841,61 @@
         <v>1</v>
       </c>
       <c r="S88" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T88" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U88" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V88" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W88" t="s">
-        <v>37</v>
-      </c>
-      <c r="X88" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y88" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z88" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA88" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB88" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC88" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD88" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE88" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF88" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG88" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH88" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI88" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ88" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG88" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH88" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI88" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ88" s="4">
+        <v>0</v>
       </c>
       <c r="AK88" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL88">
         <v>2</v>
@@ -11894,7 +11903,7 @@
     </row>
     <row r="89" spans="1:38">
       <c r="A89">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -11903,7 +11912,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -11939,7 +11948,7 @@
         <v>1</v>
       </c>
       <c r="P89" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -11948,61 +11957,61 @@
         <v>1</v>
       </c>
       <c r="S89" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T89" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U89" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V89" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W89" t="s">
-        <v>37</v>
-      </c>
-      <c r="X89" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y89" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z89" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA89" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB89" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC89" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD89" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE89" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF89" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG89" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH89" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI89" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ89" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI89" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ89" s="4">
+        <v>0</v>
       </c>
       <c r="AK89" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL89">
         <v>2</v>
@@ -12010,7 +12019,7 @@
     </row>
     <row r="90" spans="1:38">
       <c r="A90">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -12019,7 +12028,7 @@
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -12055,7 +12064,7 @@
         <v>0</v>
       </c>
       <c r="P90" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q90">
         <v>1</v>
@@ -12064,16 +12073,16 @@
         <v>1</v>
       </c>
       <c r="S90" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T90" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U90" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V90" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W90">
         <v>2</v>
@@ -12117,8 +12126,8 @@
       <c r="AJ90" s="4">
         <v>0</v>
       </c>
-      <c r="AK90" s="5" t="s">
-        <v>188</v>
+      <c r="AK90" t="s">
+        <v>40</v>
       </c>
       <c r="AL90">
         <v>2</v>
@@ -12126,7 +12135,7 @@
     </row>
     <row r="91" spans="1:38">
       <c r="A91">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -12135,7 +12144,7 @@
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E91">
         <v>3</v>
@@ -12171,25 +12180,25 @@
         <v>0</v>
       </c>
       <c r="P91" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q91" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R91">
         <v>1</v>
       </c>
       <c r="S91" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T91" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U91" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V91" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W91">
         <v>2</v>
@@ -12197,6 +12206,9 @@
       <c r="X91" s="3">
         <v>1</v>
       </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
@@ -12231,7 +12243,7 @@
         <v>0</v>
       </c>
       <c r="AK91" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL91">
         <v>2</v>
@@ -12239,7 +12251,7 @@
     </row>
     <row r="92" spans="1:38">
       <c r="A92">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -12248,7 +12260,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -12284,7 +12296,7 @@
         <v>1</v>
       </c>
       <c r="P92" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q92">
         <v>2</v>
@@ -12293,64 +12305,2845 @@
         <v>1</v>
       </c>
       <c r="S92" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T92" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U92" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V92" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W92" t="s">
-        <v>37</v>
-      </c>
-      <c r="X92" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y92" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z92" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA92" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB92" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC92" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD92" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE92" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF92" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG92" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH92" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI92" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ92" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH92" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI92" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ92" s="4">
+        <v>0</v>
       </c>
       <c r="AK92" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL92">
         <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:38">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>1</v>
+      </c>
+      <c r="I93" s="1">
+        <v>1</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0</v>
+      </c>
+      <c r="K93" s="1">
+        <v>1</v>
+      </c>
+      <c r="L93" s="2">
+        <v>0</v>
+      </c>
+      <c r="M93" s="2">
+        <v>0</v>
+      </c>
+      <c r="N93" s="2">
+        <v>0</v>
+      </c>
+      <c r="O93" s="2">
+        <v>1</v>
+      </c>
+      <c r="P93" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q93">
+        <v>2</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93" t="s">
+        <v>40</v>
+      </c>
+      <c r="T93" t="s">
+        <v>40</v>
+      </c>
+      <c r="U93" t="s">
+        <v>40</v>
+      </c>
+      <c r="V93" t="s">
+        <v>40</v>
+      </c>
+      <c r="W93" t="s">
+        <v>40</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK93" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:38">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>1</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0</v>
+      </c>
+      <c r="M94" s="2">
+        <v>0</v>
+      </c>
+      <c r="N94" s="2">
+        <v>0</v>
+      </c>
+      <c r="O94" s="2">
+        <v>1</v>
+      </c>
+      <c r="P94" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q94">
+        <v>2</v>
+      </c>
+      <c r="R94">
+        <v>2</v>
+      </c>
+      <c r="S94" t="s">
+        <v>40</v>
+      </c>
+      <c r="T94" t="s">
+        <v>40</v>
+      </c>
+      <c r="U94" t="s">
+        <v>40</v>
+      </c>
+      <c r="V94" t="s">
+        <v>40</v>
+      </c>
+      <c r="W94" t="s">
+        <v>40</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH94" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI94" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ94" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK94" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:38">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>155</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>1</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2">
+        <v>1</v>
+      </c>
+      <c r="M95" s="2">
+        <v>0</v>
+      </c>
+      <c r="N95" s="2">
+        <v>1</v>
+      </c>
+      <c r="O95" s="2">
+        <v>0</v>
+      </c>
+      <c r="P95" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q95">
+        <v>2</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95" t="s">
+        <v>40</v>
+      </c>
+      <c r="T95" t="s">
+        <v>40</v>
+      </c>
+      <c r="U95" t="s">
+        <v>40</v>
+      </c>
+      <c r="V95" t="s">
+        <v>40</v>
+      </c>
+      <c r="W95" t="s">
+        <v>40</v>
+      </c>
+      <c r="X95" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK95" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:38">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+      <c r="H96" s="1">
+        <v>1</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0</v>
+      </c>
+      <c r="L96" s="2">
+        <v>0</v>
+      </c>
+      <c r="M96" s="2">
+        <v>0</v>
+      </c>
+      <c r="N96" s="2">
+        <v>1</v>
+      </c>
+      <c r="O96" s="2">
+        <v>1</v>
+      </c>
+      <c r="P96" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q96">
+        <v>2</v>
+      </c>
+      <c r="R96">
+        <v>1</v>
+      </c>
+      <c r="S96" t="s">
+        <v>40</v>
+      </c>
+      <c r="T96" t="s">
+        <v>40</v>
+      </c>
+      <c r="U96" t="s">
+        <v>40</v>
+      </c>
+      <c r="V96" t="s">
+        <v>40</v>
+      </c>
+      <c r="W96" t="s">
+        <v>40</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH96" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI96" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ96" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK96" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:38">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>155</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+      <c r="L97" s="2">
+        <v>0</v>
+      </c>
+      <c r="M97" s="2">
+        <v>0</v>
+      </c>
+      <c r="N97" s="2">
+        <v>1</v>
+      </c>
+      <c r="O97" s="2">
+        <v>1</v>
+      </c>
+      <c r="P97" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q97">
+        <v>2</v>
+      </c>
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97" t="s">
+        <v>40</v>
+      </c>
+      <c r="T97" t="s">
+        <v>40</v>
+      </c>
+      <c r="U97" t="s">
+        <v>40</v>
+      </c>
+      <c r="V97" t="s">
+        <v>40</v>
+      </c>
+      <c r="W97" t="s">
+        <v>40</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH97" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI97" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ97" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK97" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:38">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>155</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+      <c r="L98" s="2">
+        <v>0</v>
+      </c>
+      <c r="M98" s="2">
+        <v>1</v>
+      </c>
+      <c r="N98" s="2">
+        <v>1</v>
+      </c>
+      <c r="O98" s="2">
+        <v>0</v>
+      </c>
+      <c r="P98" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q98">
+        <v>2</v>
+      </c>
+      <c r="R98">
+        <v>2</v>
+      </c>
+      <c r="S98" t="s">
+        <v>40</v>
+      </c>
+      <c r="T98" t="s">
+        <v>40</v>
+      </c>
+      <c r="U98" t="s">
+        <v>40</v>
+      </c>
+      <c r="V98" t="s">
+        <v>40</v>
+      </c>
+      <c r="W98" t="s">
+        <v>40</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK98" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:38">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0</v>
+      </c>
+      <c r="L99" s="2">
+        <v>1</v>
+      </c>
+      <c r="M99" s="2">
+        <v>0</v>
+      </c>
+      <c r="N99" s="2">
+        <v>0</v>
+      </c>
+      <c r="O99" s="2">
+        <v>1</v>
+      </c>
+      <c r="P99" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q99">
+        <v>2</v>
+      </c>
+      <c r="R99">
+        <v>1</v>
+      </c>
+      <c r="S99" t="s">
+        <v>40</v>
+      </c>
+      <c r="T99" t="s">
+        <v>40</v>
+      </c>
+      <c r="U99" t="s">
+        <v>40</v>
+      </c>
+      <c r="V99" t="s">
+        <v>40</v>
+      </c>
+      <c r="W99" t="s">
+        <v>40</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH99" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI99" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ99" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK99" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:38">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0</v>
+      </c>
+      <c r="L100" s="2">
+        <v>1</v>
+      </c>
+      <c r="M100" s="2">
+        <v>0</v>
+      </c>
+      <c r="N100" s="2">
+        <v>0</v>
+      </c>
+      <c r="O100" s="2">
+        <v>0</v>
+      </c>
+      <c r="P100" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q100">
+        <v>2</v>
+      </c>
+      <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100" t="s">
+        <v>40</v>
+      </c>
+      <c r="T100" t="s">
+        <v>40</v>
+      </c>
+      <c r="U100" t="s">
+        <v>40</v>
+      </c>
+      <c r="V100" t="s">
+        <v>40</v>
+      </c>
+      <c r="W100" t="s">
+        <v>40</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ100" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK100" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:38">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>155</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>1</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2">
+        <v>0</v>
+      </c>
+      <c r="M101" s="2">
+        <v>0</v>
+      </c>
+      <c r="N101" s="2">
+        <v>1</v>
+      </c>
+      <c r="O101" s="2">
+        <v>1</v>
+      </c>
+      <c r="P101" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="R101">
+        <v>2</v>
+      </c>
+      <c r="S101" t="s">
+        <v>40</v>
+      </c>
+      <c r="T101" t="s">
+        <v>40</v>
+      </c>
+      <c r="U101" t="s">
+        <v>40</v>
+      </c>
+      <c r="V101" t="s">
+        <v>40</v>
+      </c>
+      <c r="W101" t="s">
+        <v>40</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK101" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:38">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>40</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2">
+        <v>0</v>
+      </c>
+      <c r="M102" s="2">
+        <v>0</v>
+      </c>
+      <c r="N102" s="2">
+        <v>1</v>
+      </c>
+      <c r="O102" s="2">
+        <v>0</v>
+      </c>
+      <c r="P102" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
+      <c r="R102">
+        <v>1</v>
+      </c>
+      <c r="S102" t="s">
+        <v>40</v>
+      </c>
+      <c r="T102" t="s">
+        <v>40</v>
+      </c>
+      <c r="U102" t="s">
+        <v>40</v>
+      </c>
+      <c r="V102" t="s">
+        <v>40</v>
+      </c>
+      <c r="W102" t="s">
+        <v>40</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ102" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK102" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:38">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>1</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0</v>
+      </c>
+      <c r="L103" s="2">
+        <v>0</v>
+      </c>
+      <c r="M103" s="2">
+        <v>0</v>
+      </c>
+      <c r="N103" s="2">
+        <v>1</v>
+      </c>
+      <c r="O103" s="2">
+        <v>1</v>
+      </c>
+      <c r="P103" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+      <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103" t="s">
+        <v>40</v>
+      </c>
+      <c r="T103" t="s">
+        <v>40</v>
+      </c>
+      <c r="U103" t="s">
+        <v>40</v>
+      </c>
+      <c r="V103" t="s">
+        <v>40</v>
+      </c>
+      <c r="W103" t="s">
+        <v>40</v>
+      </c>
+      <c r="X103" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z103" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ103" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK103" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:38">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2">
+        <v>1</v>
+      </c>
+      <c r="M104" s="2">
+        <v>0</v>
+      </c>
+      <c r="N104" s="2">
+        <v>0</v>
+      </c>
+      <c r="O104" s="2">
+        <v>0</v>
+      </c>
+      <c r="P104" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q104">
+        <v>2</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104" t="s">
+        <v>40</v>
+      </c>
+      <c r="T104" t="s">
+        <v>40</v>
+      </c>
+      <c r="U104" t="s">
+        <v>40</v>
+      </c>
+      <c r="V104" t="s">
+        <v>40</v>
+      </c>
+      <c r="W104" t="s">
+        <v>40</v>
+      </c>
+      <c r="X104" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z104" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA104" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC104" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD104" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE104" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF104" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG104" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH104" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI104" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ104" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK104" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:38">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2">
+        <v>0</v>
+      </c>
+      <c r="M105" s="2">
+        <v>0</v>
+      </c>
+      <c r="N105" s="2">
+        <v>1</v>
+      </c>
+      <c r="O105" s="2">
+        <v>0</v>
+      </c>
+      <c r="P105" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105" t="s">
+        <v>40</v>
+      </c>
+      <c r="T105" t="s">
+        <v>40</v>
+      </c>
+      <c r="U105" t="s">
+        <v>40</v>
+      </c>
+      <c r="V105" t="s">
+        <v>40</v>
+      </c>
+      <c r="W105" t="s">
+        <v>40</v>
+      </c>
+      <c r="X105" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z105" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA105" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB105" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC105" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD105" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE105" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF105" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG105" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH105" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI105" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ105" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK105" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:38">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106" s="1">
+        <v>1</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>1</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2">
+        <v>1</v>
+      </c>
+      <c r="M106" s="2">
+        <v>0</v>
+      </c>
+      <c r="N106" s="2">
+        <v>0</v>
+      </c>
+      <c r="O106" s="2">
+        <v>0</v>
+      </c>
+      <c r="P106" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106" t="s">
+        <v>40</v>
+      </c>
+      <c r="T106" t="s">
+        <v>40</v>
+      </c>
+      <c r="U106" t="s">
+        <v>40</v>
+      </c>
+      <c r="V106" t="s">
+        <v>40</v>
+      </c>
+      <c r="W106" t="s">
+        <v>40</v>
+      </c>
+      <c r="X106" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y106" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA106" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB106" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC106" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD106" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE106" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF106" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG106" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH106" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI106" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ106" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK106" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:38">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>1</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2">
+        <v>0</v>
+      </c>
+      <c r="M107" s="2">
+        <v>0</v>
+      </c>
+      <c r="N107" s="2">
+        <v>1</v>
+      </c>
+      <c r="O107" s="2">
+        <v>0</v>
+      </c>
+      <c r="P107" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107" t="s">
+        <v>40</v>
+      </c>
+      <c r="T107" t="s">
+        <v>40</v>
+      </c>
+      <c r="U107" t="s">
+        <v>40</v>
+      </c>
+      <c r="V107" t="s">
+        <v>40</v>
+      </c>
+      <c r="W107" t="s">
+        <v>40</v>
+      </c>
+      <c r="X107" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB107" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC107" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD107" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE107" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF107" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG107" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH107" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI107" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ107" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK107" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:38">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108" t="s">
+        <v>155</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1">
+        <v>1</v>
+      </c>
+      <c r="H108" s="1">
+        <v>1</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0</v>
+      </c>
+      <c r="K108" s="1">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2">
+        <v>0</v>
+      </c>
+      <c r="M108" s="2">
+        <v>0</v>
+      </c>
+      <c r="N108" s="2">
+        <v>0</v>
+      </c>
+      <c r="O108" s="2">
+        <v>1</v>
+      </c>
+      <c r="P108" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+      <c r="R108">
+        <v>1</v>
+      </c>
+      <c r="S108" t="s">
+        <v>40</v>
+      </c>
+      <c r="T108" t="s">
+        <v>40</v>
+      </c>
+      <c r="U108" t="s">
+        <v>40</v>
+      </c>
+      <c r="V108" t="s">
+        <v>40</v>
+      </c>
+      <c r="W108" t="s">
+        <v>40</v>
+      </c>
+      <c r="X108" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC108" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD108" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE108" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF108" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG108" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH108" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI108" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ108" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK108" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:38">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0</v>
+      </c>
+      <c r="K109" s="1">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2">
+        <v>1</v>
+      </c>
+      <c r="M109" s="2">
+        <v>0</v>
+      </c>
+      <c r="N109" s="2">
+        <v>1</v>
+      </c>
+      <c r="O109" s="2">
+        <v>0</v>
+      </c>
+      <c r="P109" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q109">
+        <v>2</v>
+      </c>
+      <c r="R109">
+        <v>2</v>
+      </c>
+      <c r="S109" t="s">
+        <v>40</v>
+      </c>
+      <c r="T109" t="s">
+        <v>40</v>
+      </c>
+      <c r="U109" t="s">
+        <v>40</v>
+      </c>
+      <c r="V109" t="s">
+        <v>40</v>
+      </c>
+      <c r="W109" t="s">
+        <v>40</v>
+      </c>
+      <c r="X109" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y109" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA109" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB109" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ109" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK109" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:38">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110" t="s">
+        <v>155</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>1</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0</v>
+      </c>
+      <c r="K110" s="1">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2">
+        <v>1</v>
+      </c>
+      <c r="M110" s="2">
+        <v>0</v>
+      </c>
+      <c r="N110" s="2">
+        <v>0</v>
+      </c>
+      <c r="O110" s="2">
+        <v>1</v>
+      </c>
+      <c r="P110" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q110">
+        <v>1</v>
+      </c>
+      <c r="R110">
+        <v>2</v>
+      </c>
+      <c r="S110" t="s">
+        <v>40</v>
+      </c>
+      <c r="T110" t="s">
+        <v>40</v>
+      </c>
+      <c r="U110" t="s">
+        <v>40</v>
+      </c>
+      <c r="V110" t="s">
+        <v>40</v>
+      </c>
+      <c r="W110" t="s">
+        <v>40</v>
+      </c>
+      <c r="X110" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC110" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD110" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE110" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF110" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG110" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH110" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI110" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ110" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK110" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:38">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111" s="1">
+        <v>1</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>1</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0</v>
+      </c>
+      <c r="K111" s="1">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2">
+        <v>1</v>
+      </c>
+      <c r="M111" s="2">
+        <v>0</v>
+      </c>
+      <c r="N111" s="2">
+        <v>0</v>
+      </c>
+      <c r="O111" s="2">
+        <v>1</v>
+      </c>
+      <c r="P111" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111" t="s">
+        <v>40</v>
+      </c>
+      <c r="T111" t="s">
+        <v>40</v>
+      </c>
+      <c r="U111" t="s">
+        <v>40</v>
+      </c>
+      <c r="V111" t="s">
+        <v>40</v>
+      </c>
+      <c r="W111" t="s">
+        <v>40</v>
+      </c>
+      <c r="X111" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z111" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA111" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC111" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD111" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE111" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF111" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG111" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH111" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI111" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ111" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK111" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:38">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0</v>
+      </c>
+      <c r="K112" s="1">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2">
+        <v>1</v>
+      </c>
+      <c r="M112" s="2">
+        <v>0</v>
+      </c>
+      <c r="N112" s="2">
+        <v>1</v>
+      </c>
+      <c r="O112" s="2">
+        <v>0</v>
+      </c>
+      <c r="P112" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q112">
+        <v>2</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112" t="s">
+        <v>40</v>
+      </c>
+      <c r="T112" t="s">
+        <v>40</v>
+      </c>
+      <c r="U112" t="s">
+        <v>40</v>
+      </c>
+      <c r="V112" t="s">
+        <v>40</v>
+      </c>
+      <c r="W112" t="s">
+        <v>40</v>
+      </c>
+      <c r="X112" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y112" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z112" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA112" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB112" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC112" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD112" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE112" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF112" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG112" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH112" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI112" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ112" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK112" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:38">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+      <c r="K113" s="1">
+        <v>0</v>
+      </c>
+      <c r="L113" s="2">
+        <v>0</v>
+      </c>
+      <c r="M113" s="2">
+        <v>0</v>
+      </c>
+      <c r="N113" s="2">
+        <v>0</v>
+      </c>
+      <c r="O113" s="2">
+        <v>1</v>
+      </c>
+      <c r="P113" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q113">
+        <v>1</v>
+      </c>
+      <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113" t="s">
+        <v>40</v>
+      </c>
+      <c r="T113" t="s">
+        <v>40</v>
+      </c>
+      <c r="U113" t="s">
+        <v>40</v>
+      </c>
+      <c r="V113" t="s">
+        <v>40</v>
+      </c>
+      <c r="W113">
+        <v>2</v>
+      </c>
+      <c r="X113" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z113" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA113" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB113" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC113" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD113" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE113" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF113" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG113" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH113" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI113" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ113" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK113" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:38">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1">
+        <v>1</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0</v>
+      </c>
+      <c r="K114" s="1">
+        <v>0</v>
+      </c>
+      <c r="L114" s="2">
+        <v>0</v>
+      </c>
+      <c r="M114" s="2">
+        <v>1</v>
+      </c>
+      <c r="N114" s="2">
+        <v>1</v>
+      </c>
+      <c r="O114" s="2">
+        <v>0</v>
+      </c>
+      <c r="P114" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q114">
+        <v>1</v>
+      </c>
+      <c r="R114">
+        <v>2</v>
+      </c>
+      <c r="S114" t="s">
+        <v>40</v>
+      </c>
+      <c r="T114" t="s">
+        <v>40</v>
+      </c>
+      <c r="U114" t="s">
+        <v>40</v>
+      </c>
+      <c r="V114" t="s">
+        <v>40</v>
+      </c>
+      <c r="W114" t="s">
+        <v>40</v>
+      </c>
+      <c r="X114" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y114" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z114" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA114" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB114" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC114" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD114" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE114" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF114" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG114" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH114" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI114" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ114" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK114" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:38">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>155</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+      <c r="H115" s="1">
+        <v>1</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0</v>
+      </c>
+      <c r="K115" s="1">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2">
+        <v>1</v>
+      </c>
+      <c r="M115" s="2">
+        <v>0</v>
+      </c>
+      <c r="N115" s="2">
+        <v>1</v>
+      </c>
+      <c r="O115" s="2">
+        <v>1</v>
+      </c>
+      <c r="P115" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q115">
+        <v>1</v>
+      </c>
+      <c r="R115">
+        <v>2</v>
+      </c>
+      <c r="S115" t="s">
+        <v>40</v>
+      </c>
+      <c r="T115" t="s">
+        <v>40</v>
+      </c>
+      <c r="U115" t="s">
+        <v>40</v>
+      </c>
+      <c r="V115" t="s">
+        <v>40</v>
+      </c>
+      <c r="W115">
+        <v>2</v>
+      </c>
+      <c r="X115" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y115" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z115" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA115" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC115" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD115" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE115" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF115" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG115" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH115" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI115" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ115" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK115" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:37">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116" t="s">
+        <v>155</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+      <c r="F116" s="1">
+        <v>1</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1">
+        <v>1</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+      <c r="J116" s="1">
+        <v>0</v>
+      </c>
+      <c r="K116" s="1">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2">
+        <v>1</v>
+      </c>
+      <c r="M116" s="2">
+        <v>0</v>
+      </c>
+      <c r="N116" s="2">
+        <v>0</v>
+      </c>
+      <c r="O116" s="2">
+        <v>1</v>
+      </c>
+      <c r="P116" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q116">
+        <v>1</v>
+      </c>
+      <c r="R116">
+        <v>2</v>
+      </c>
+      <c r="S116" t="s">
+        <v>40</v>
+      </c>
+      <c r="T116" t="s">
+        <v>40</v>
+      </c>
+      <c r="U116" t="s">
+        <v>40</v>
+      </c>
+      <c r="V116" t="s">
+        <v>40</v>
+      </c>
+      <c r="W116">
+        <v>2</v>
+      </c>
+      <c r="X116" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y116" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z116" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA116" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB116" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC116" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD116" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE116" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF116" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG116" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH116" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI116" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ116" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK116" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/excel/bike_data.xlsx
+++ b/excel/bike_data.xlsx
@@ -1651,8 +1651,8 @@
   <sheetPr/>
   <dimension ref="A1:AL116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
